--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397136.6761404615</v>
+        <v>394583.7593843449</v>
       </c>
     </row>
     <row r="7">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,52 +1856,52 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>49.17381009994773</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>55.82857640775176</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>55.82857640775176</v>
-      </c>
-      <c r="I17" t="n">
-        <v>55.82857640775176</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>49.17381009994773</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>49.17381009994773</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>49.17381009994773</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>49.17381009994773</v>
       </c>
       <c r="S19" t="n">
-        <v>49.17381009994773</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>55.82857640775176</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,17 +2078,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>329.4434482790268</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>329.4434482790268</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>148.3164803134351</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>160.7321839770412</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>70.3432726498008</v>
+        <v>64.6507715293537</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>233.5634496297142</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U23" t="n">
         <v>251.3196373304354</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>329.4434482790268</v>
+        <v>146.7086283644358</v>
       </c>
       <c r="X23" t="n">
-        <v>38.85415191373117</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.1948131986256</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1695226499673</v>
+        <v>118.9881020687726</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.31662853108649</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.08898799481784</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>221.4744616348964</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>148.3164803134351</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T26" t="n">
-        <v>221.6723096882149</v>
+        <v>37.24629996473205</v>
       </c>
       <c r="U26" t="n">
         <v>251.3196373304354</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>62.54787151592343</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,13 +2685,13 @@
         <v>168.451299333726</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9299350735246</v>
       </c>
       <c r="V27" t="n">
-        <v>170.9010971647665</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>233.5634496297142</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.853794240677067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>40.91717470217592</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>329.4434482790268</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>197.9388202234565</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>129.4416052671257</v>
       </c>
       <c r="S29" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>66.89362760695261</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>191.0580470348136</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>222.7166244422424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.24812119445996</v>
+        <v>66.31662853108649</v>
       </c>
       <c r="J31" t="n">
-        <v>83.04608945473007</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>5.32191581204361</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.94732316848051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>329.4434482790268</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>129.4416052671257</v>
+        <v>88.5640942832664</v>
       </c>
       <c r="S32" t="n">
         <v>201.6096949609004</v>
       </c>
       <c r="T32" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>66.89362760695261</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>76.03950364499502</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>19.45342506662849</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.3223217658007</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>233.5634496297142</v>
+        <v>6.241127863913532</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="C35" t="n">
         <v>329.4434482790268</v>
       </c>
       <c r="D35" t="n">
-        <v>146.6252905045432</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>68.50147955595196</v>
       </c>
       <c r="T35" t="n">
         <v>221.6723096882149</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3196373304354</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>29.46809076867502</v>
       </c>
       <c r="C36" t="n">
-        <v>48.32739427939413</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.71834142630415</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.8451082034101</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>227.3223217658007</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>6.241127863913532</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>329.4434482790268</v>
       </c>
       <c r="D38" t="n">
-        <v>329.4434482790268</v>
+        <v>274.4590438226696</v>
       </c>
       <c r="E38" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U38" t="n">
         <v>251.3196373304354</v>
       </c>
       <c r="V38" t="n">
-        <v>38.85415191373129</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.46809076867502</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>189.2938785125428</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>160.9302453289157</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.6332043007985</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>7.853794240677141</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>240.9999791442189</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>273.614871871275</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.32766945600412</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6.230811892950456</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>225.9299350735246</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>56.38148194191386</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.6437903785346</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="C17" t="n">
-        <v>173.6437903785346</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="D17" t="n">
-        <v>173.6437903785346</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6437903785346</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6437903785346</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="G17" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="H17" t="n">
-        <v>60.85878753459162</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="I17" t="n">
         <v>4.466286112620141</v>
       </c>
       <c r="J17" t="n">
-        <v>19.96097985558175</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="K17" t="n">
-        <v>75.231270499256</v>
+        <v>32.62802858197833</v>
       </c>
       <c r="L17" t="n">
-        <v>75.231270499256</v>
+        <v>87.89831922565257</v>
       </c>
       <c r="M17" t="n">
-        <v>75.231270499256</v>
+        <v>87.89831922565257</v>
       </c>
       <c r="N17" t="n">
-        <v>87.89831922565257</v>
+        <v>143.1686098693268</v>
       </c>
       <c r="O17" t="n">
         <v>143.1686098693268</v>
@@ -5540,25 +5540,25 @@
         <v>223.314305631007</v>
       </c>
       <c r="S17" t="n">
-        <v>223.314305631007</v>
+        <v>173.6437903785346</v>
       </c>
       <c r="T17" t="n">
         <v>173.6437903785346</v>
       </c>
       <c r="U17" t="n">
-        <v>173.6437903785346</v>
+        <v>117.2512889565631</v>
       </c>
       <c r="V17" t="n">
-        <v>173.6437903785346</v>
+        <v>60.85878753459162</v>
       </c>
       <c r="W17" t="n">
-        <v>173.6437903785346</v>
+        <v>60.85878753459162</v>
       </c>
       <c r="X17" t="n">
-        <v>173.6437903785346</v>
+        <v>60.85878753459162</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.6437903785346</v>
+        <v>60.85878753459162</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="C18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="D18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="E18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="F18" t="n">
-        <v>4.466286112620141</v>
+        <v>173.6437903785346</v>
       </c>
       <c r="G18" t="n">
-        <v>4.466286112620141</v>
+        <v>117.2512889565631</v>
       </c>
       <c r="H18" t="n">
-        <v>4.466286112620141</v>
+        <v>60.85878753459162</v>
       </c>
       <c r="I18" t="n">
         <v>4.466286112620141</v>
       </c>
       <c r="J18" t="n">
-        <v>20.00143987364616</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="K18" t="n">
-        <v>20.00143987364616</v>
+        <v>59.73657675629438</v>
       </c>
       <c r="L18" t="n">
-        <v>20.00143987364616</v>
+        <v>115.0068673999686</v>
       </c>
       <c r="M18" t="n">
-        <v>20.00143987364616</v>
+        <v>170.2771580436429</v>
       </c>
       <c r="N18" t="n">
-        <v>57.5034336999843</v>
+        <v>223.314305631007</v>
       </c>
       <c r="O18" t="n">
-        <v>112.7737243436585</v>
+        <v>223.314305631007</v>
       </c>
       <c r="P18" t="n">
-        <v>168.0440149873328</v>
+        <v>223.314305631007</v>
       </c>
       <c r="Q18" t="n">
         <v>223.314305631007</v>
@@ -5619,25 +5619,25 @@
         <v>223.314305631007</v>
       </c>
       <c r="S18" t="n">
-        <v>173.6437903785346</v>
+        <v>223.314305631007</v>
       </c>
       <c r="T18" t="n">
-        <v>117.2512889565631</v>
+        <v>223.314305631007</v>
       </c>
       <c r="U18" t="n">
-        <v>60.85878753459162</v>
+        <v>223.314305631007</v>
       </c>
       <c r="V18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="W18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="X18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.466286112620141</v>
+        <v>223.314305631007</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="C19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="D19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="E19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="F19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="G19" t="n">
-        <v>60.85878753459162</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="H19" t="n">
-        <v>60.85878753459162</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="I19" t="n">
-        <v>60.85878753459162</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="J19" t="n">
         <v>4.466286112620141</v>
@@ -5677,7 +5677,7 @@
         <v>4.466286112620141</v>
       </c>
       <c r="L19" t="n">
-        <v>53.25060294733026</v>
+        <v>53.25060294733028</v>
       </c>
       <c r="M19" t="n">
         <v>108.5208935910045</v>
@@ -5695,7 +5695,7 @@
         <v>223.314305631007</v>
       </c>
       <c r="R19" t="n">
-        <v>223.314305631007</v>
+        <v>173.6437903785346</v>
       </c>
       <c r="S19" t="n">
         <v>173.6437903785346</v>
@@ -5710,13 +5710,13 @@
         <v>117.2512889565631</v>
       </c>
       <c r="W19" t="n">
-        <v>117.2512889565631</v>
+        <v>60.85878753459162</v>
       </c>
       <c r="X19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.2512889565631</v>
+        <v>4.466286112620141</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>359.126635740127</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="C20" t="n">
-        <v>359.126635740127</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="D20" t="n">
-        <v>26.35547586232214</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="E20" t="n">
-        <v>26.35547586232214</v>
+        <v>176.1701024415495</v>
       </c>
       <c r="F20" t="n">
-        <v>26.35547586232214</v>
+        <v>176.1701024415495</v>
       </c>
       <c r="G20" t="n">
-        <v>26.35547586232214</v>
+        <v>176.1701024415495</v>
       </c>
       <c r="H20" t="n">
         <v>26.35547586232214</v>
@@ -5774,28 +5774,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R20" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S20" t="n">
-        <v>1024.668955495737</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T20" t="n">
-        <v>1024.668955495737</v>
+        <v>1093.862369188617</v>
       </c>
       <c r="U20" t="n">
-        <v>1024.668955495737</v>
+        <v>840.004149662925</v>
       </c>
       <c r="V20" t="n">
-        <v>1024.668955495737</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="W20" t="n">
-        <v>1024.668955495737</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="X20" t="n">
-        <v>1024.668955495737</v>
+        <v>508.9412623193543</v>
       </c>
       <c r="Y20" t="n">
-        <v>691.8977956179318</v>
+        <v>508.9412623193543</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.414655757028</v>
+        <v>324.148004251583</v>
       </c>
       <c r="C21" t="n">
-        <v>286.961626475901</v>
+        <v>324.148004251583</v>
       </c>
       <c r="D21" t="n">
-        <v>138.0272168146497</v>
+        <v>324.148004251583</v>
       </c>
       <c r="E21" t="n">
-        <v>138.0272168146497</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="F21" t="n">
-        <v>138.0272168146497</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="G21" t="n">
-        <v>138.0272168146497</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="H21" t="n">
         <v>26.35547586232214</v>
@@ -5838,7 +5838,7 @@
         <v>446.8926278782848</v>
       </c>
       <c r="M21" t="n">
-        <v>701.8876215678738</v>
+        <v>773.0416416745213</v>
       </c>
       <c r="N21" t="n">
         <v>1028.03663536411</v>
@@ -5853,28 +5853,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R21" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="S21" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="T21" t="n">
-        <v>1116.295602504957</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="U21" t="n">
-        <v>1116.295602504957</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="V21" t="n">
-        <v>1045.241791747583</v>
+        <v>1162.212496970339</v>
       </c>
       <c r="W21" t="n">
-        <v>1045.241791747583</v>
+        <v>907.9751402421377</v>
       </c>
       <c r="X21" t="n">
-        <v>837.3902915420499</v>
+        <v>700.1236400366049</v>
       </c>
       <c r="Y21" t="n">
-        <v>629.629992777096</v>
+        <v>492.3633412716511</v>
       </c>
     </row>
     <row r="22">
@@ -5941,7 +5941,7 @@
         <v>262.2781522559729</v>
       </c>
       <c r="U22" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="V22" t="n">
         <v>26.35547586232214</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="C23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="D23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="E23" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="F23" t="n">
         <v>26.35547586232214</v>
@@ -5987,13 +5987,13 @@
         <v>26.35547586232214</v>
       </c>
       <c r="J23" t="n">
-        <v>41.8501696052839</v>
+        <v>41.85016960528375</v>
       </c>
       <c r="K23" t="n">
-        <v>185.8175031886683</v>
+        <v>185.8175031886682</v>
       </c>
       <c r="L23" t="n">
-        <v>416.6983385035397</v>
+        <v>416.6983385035395</v>
       </c>
       <c r="M23" t="n">
         <v>690.2042992386662</v>
@@ -6011,28 +6011,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R23" t="n">
-        <v>1317.773793116107</v>
+        <v>1187.024696886687</v>
       </c>
       <c r="S23" t="n">
-        <v>1317.773793116107</v>
+        <v>983.3785403605252</v>
       </c>
       <c r="T23" t="n">
-        <v>1317.773793116107</v>
+        <v>759.4671164330355</v>
       </c>
       <c r="U23" t="n">
-        <v>1063.915573590415</v>
+        <v>505.6088969073431</v>
       </c>
       <c r="V23" t="n">
-        <v>1063.915573590415</v>
+        <v>174.5460095637725</v>
       </c>
       <c r="W23" t="n">
-        <v>731.1444137126098</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="X23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="Y23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232214</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>600.1722725263401</v>
+        <v>452.317490930562</v>
       </c>
       <c r="C24" t="n">
-        <v>600.1722725263401</v>
+        <v>452.317490930562</v>
       </c>
       <c r="D24" t="n">
-        <v>470.6825622246981</v>
+        <v>452.317490930562</v>
       </c>
       <c r="E24" t="n">
-        <v>311.4451072192426</v>
+        <v>293.0800359251065</v>
       </c>
       <c r="F24" t="n">
-        <v>164.9105492461275</v>
+        <v>146.5454779519914</v>
       </c>
       <c r="G24" t="n">
         <v>26.35547586232214</v>
@@ -6066,13 +6066,13 @@
         <v>26.35547586232214</v>
       </c>
       <c r="J24" t="n">
-        <v>41.89062962334817</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="K24" t="n">
-        <v>195.0635249186371</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="L24" t="n">
-        <v>195.0635249186371</v>
+        <v>293.7197325829959</v>
       </c>
       <c r="M24" t="n">
         <v>394.9683734380714</v>
@@ -6099,19 +6099,19 @@
         <v>1317.773793116107</v>
       </c>
       <c r="U24" t="n">
-        <v>1089.561737486284</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V24" t="n">
-        <v>854.4096292545416</v>
+        <v>1082.621684884364</v>
       </c>
       <c r="W24" t="n">
-        <v>600.1722725263401</v>
+        <v>828.3843281561628</v>
       </c>
       <c r="X24" t="n">
-        <v>600.1722725263401</v>
+        <v>620.53282795063</v>
       </c>
       <c r="Y24" t="n">
-        <v>600.1722725263401</v>
+        <v>620.53282795063</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="C25" t="n">
-        <v>26.35547586232214</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="D25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="E25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="F25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="G25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="H25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="I25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="J25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="K25" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="L25" t="n">
-        <v>75.13979269703229</v>
+        <v>1130.635433557166</v>
       </c>
       <c r="M25" t="n">
-        <v>136.9651378277962</v>
+        <v>1192.46077868793</v>
       </c>
       <c r="N25" t="n">
-        <v>202.7550308596446</v>
+        <v>1258.250671719779</v>
       </c>
       <c r="O25" t="n">
-        <v>247.5063499628179</v>
+        <v>1303.001990822952</v>
       </c>
       <c r="P25" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q25" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="R25" t="n">
-        <v>250.0670532713084</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="X25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.35547586232214</v>
+        <v>1317.773793116107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>508.9412623193543</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="C26" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="D26" t="n">
         <v>26.35547586232214</v>
@@ -6248,28 +6248,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R26" t="n">
-        <v>1317.773793116107</v>
+        <v>1187.024696886687</v>
       </c>
       <c r="S26" t="n">
-        <v>1317.773793116107</v>
+        <v>983.3785403605252</v>
       </c>
       <c r="T26" t="n">
-        <v>1093.862369188617</v>
+        <v>945.7560151436242</v>
       </c>
       <c r="U26" t="n">
-        <v>840.004149662925</v>
+        <v>691.8977956179318</v>
       </c>
       <c r="V26" t="n">
-        <v>508.9412623193543</v>
+        <v>691.8977956179318</v>
       </c>
       <c r="W26" t="n">
-        <v>508.9412623193543</v>
+        <v>359.126635740127</v>
       </c>
       <c r="X26" t="n">
-        <v>508.9412623193543</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="Y26" t="n">
-        <v>508.9412623193543</v>
+        <v>26.35547586232214</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200.8085051434492</v>
+        <v>339.7619583963576</v>
       </c>
       <c r="C27" t="n">
-        <v>26.35547586232214</v>
+        <v>339.7619583963576</v>
       </c>
       <c r="D27" t="n">
-        <v>26.35547586232214</v>
+        <v>339.7619583963576</v>
       </c>
       <c r="E27" t="n">
-        <v>26.35547586232214</v>
+        <v>276.5822901984551</v>
       </c>
       <c r="F27" t="n">
-        <v>26.35547586232214</v>
+        <v>276.5822901984551</v>
       </c>
       <c r="G27" t="n">
-        <v>26.35547586232214</v>
+        <v>138.0272168146497</v>
       </c>
       <c r="H27" t="n">
         <v>26.35547586232214</v>
@@ -6306,19 +6306,19 @@
         <v>41.89062962334817</v>
       </c>
       <c r="K27" t="n">
-        <v>41.89062962334817</v>
+        <v>195.0635249186371</v>
       </c>
       <c r="L27" t="n">
-        <v>68.81935964183492</v>
+        <v>462.4277816393109</v>
       </c>
       <c r="M27" t="n">
-        <v>394.9683734380714</v>
+        <v>788.5767954355474</v>
       </c>
       <c r="N27" t="n">
-        <v>721.1173872343079</v>
+        <v>936.6539323319232</v>
       </c>
       <c r="O27" t="n">
-        <v>1010.854544986305</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="P27" t="n">
         <v>1226.39109008392</v>
@@ -6333,22 +6333,22 @@
         <v>1057.363478986125</v>
       </c>
       <c r="T27" t="n">
-        <v>855.8852883749752</v>
+        <v>1057.363478986125</v>
       </c>
       <c r="U27" t="n">
-        <v>627.6732327451523</v>
+        <v>829.151423356302</v>
       </c>
       <c r="V27" t="n">
-        <v>455.0458618716508</v>
+        <v>593.9993151245592</v>
       </c>
       <c r="W27" t="n">
-        <v>200.8085051434492</v>
+        <v>339.7619583963576</v>
       </c>
       <c r="X27" t="n">
-        <v>200.8085051434492</v>
+        <v>339.7619583963576</v>
       </c>
       <c r="Y27" t="n">
-        <v>200.8085051434492</v>
+        <v>339.7619583963576</v>
       </c>
     </row>
     <row r="28">
@@ -6421,10 +6421,10 @@
         <v>262.2781522559729</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2781522559729</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="X28" t="n">
-        <v>34.28860135795554</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="Y28" t="n">
         <v>26.35547586232214</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>359.126635740127</v>
+        <v>559.0648379860427</v>
       </c>
       <c r="C29" t="n">
-        <v>359.126635740127</v>
+        <v>559.0648379860427</v>
       </c>
       <c r="D29" t="n">
-        <v>359.126635740127</v>
+        <v>559.0648379860427</v>
       </c>
       <c r="E29" t="n">
-        <v>359.126635740127</v>
+        <v>559.0648379860427</v>
       </c>
       <c r="F29" t="n">
-        <v>359.126635740127</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="G29" t="n">
-        <v>359.126635740127</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="H29" t="n">
-        <v>26.35547586232214</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="I29" t="n">
         <v>26.35547586232214</v>
@@ -6464,16 +6464,16 @@
         <v>41.85016960528375</v>
       </c>
       <c r="K29" t="n">
-        <v>185.8175031886682</v>
+        <v>185.8175031886683</v>
       </c>
       <c r="L29" t="n">
-        <v>416.6983385035395</v>
+        <v>416.6983385035397</v>
       </c>
       <c r="M29" t="n">
-        <v>690.204299238666</v>
+        <v>690.2042992386662</v>
       </c>
       <c r="N29" t="n">
-        <v>953.5038748143522</v>
+        <v>953.5038748143525</v>
       </c>
       <c r="O29" t="n">
         <v>1156.942559902893</v>
@@ -6488,25 +6488,25 @@
         <v>1187.024696886687</v>
       </c>
       <c r="S29" t="n">
-        <v>983.3785403605252</v>
+        <v>1187.024696886687</v>
       </c>
       <c r="T29" t="n">
-        <v>759.4671164330355</v>
+        <v>1187.024696886687</v>
       </c>
       <c r="U29" t="n">
-        <v>691.8977956179318</v>
+        <v>933.1664773609949</v>
       </c>
       <c r="V29" t="n">
-        <v>691.8977956179318</v>
+        <v>933.1664773609949</v>
       </c>
       <c r="W29" t="n">
-        <v>691.8977956179318</v>
+        <v>933.1664773609949</v>
       </c>
       <c r="X29" t="n">
-        <v>691.8977956179318</v>
+        <v>933.1664773609949</v>
       </c>
       <c r="Y29" t="n">
-        <v>691.8977956179318</v>
+        <v>600.3953174831901</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>508.9803698101559</v>
+        <v>200.8085051434492</v>
       </c>
       <c r="C30" t="n">
-        <v>334.5273405290289</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="D30" t="n">
-        <v>185.5929308677777</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="E30" t="n">
         <v>26.35547586232214</v>
@@ -6540,52 +6540,52 @@
         <v>26.35547586232214</v>
       </c>
       <c r="J30" t="n">
-        <v>41.89062962334817</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="K30" t="n">
-        <v>195.0635249186371</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="L30" t="n">
-        <v>462.4277816393109</v>
+        <v>293.7197325829959</v>
       </c>
       <c r="M30" t="n">
-        <v>462.4277816393109</v>
+        <v>619.8687463792323</v>
       </c>
       <c r="N30" t="n">
-        <v>788.5767954355474</v>
+        <v>946.0177601754688</v>
       </c>
       <c r="O30" t="n">
-        <v>1078.313953187544</v>
+        <v>1235.754917927466</v>
       </c>
       <c r="P30" t="n">
-        <v>1226.39109008392</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q30" t="n">
         <v>1317.773793116107</v>
       </c>
       <c r="R30" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="S30" t="n">
-        <v>1317.773793116107</v>
+        <v>1057.363478986125</v>
       </c>
       <c r="T30" t="n">
-        <v>1317.773793116107</v>
+        <v>855.8852883749752</v>
       </c>
       <c r="U30" t="n">
-        <v>1317.773793116107</v>
+        <v>662.8973620771836</v>
       </c>
       <c r="V30" t="n">
-        <v>1317.773793116107</v>
+        <v>662.8973620771836</v>
       </c>
       <c r="W30" t="n">
-        <v>1092.807505800711</v>
+        <v>408.660005348982</v>
       </c>
       <c r="X30" t="n">
-        <v>884.9560055951779</v>
+        <v>200.8085051434492</v>
       </c>
       <c r="Y30" t="n">
-        <v>677.195706830224</v>
+        <v>200.8085051434492</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="C31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="D31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="E31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="F31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="G31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="H31" t="n">
-        <v>1243.079527289359</v>
+        <v>1148.8376101882</v>
       </c>
       <c r="I31" t="n">
-        <v>1171.111728103036</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="J31" t="n">
-        <v>1087.226789259874</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="K31" t="n">
         <v>1081.851116722456</v>
@@ -6640,31 +6640,31 @@
         <v>1317.773793116107</v>
       </c>
       <c r="Q31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="R31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="X31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Y31" t="n">
-        <v>1243.079527289359</v>
+        <v>1317.773793116107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26.35547586232214</v>
+        <v>691.8977956179318</v>
       </c>
       <c r="C32" t="n">
-        <v>26.35547586232214</v>
+        <v>359.126635740127</v>
       </c>
       <c r="D32" t="n">
         <v>26.35547586232214</v>
@@ -6722,28 +6722,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R32" t="n">
-        <v>1187.024696886687</v>
+        <v>1228.315112021899</v>
       </c>
       <c r="S32" t="n">
-        <v>983.3785403605252</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="T32" t="n">
-        <v>759.4671164330355</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="U32" t="n">
+        <v>1024.668955495737</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1024.668955495737</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1024.668955495737</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1024.668955495737</v>
+      </c>
+      <c r="Y32" t="n">
         <v>691.8977956179318</v>
-      </c>
-      <c r="V32" t="n">
-        <v>691.8977956179318</v>
-      </c>
-      <c r="W32" t="n">
-        <v>691.8977956179318</v>
-      </c>
-      <c r="X32" t="n">
-        <v>691.8977956179318</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>359.126635740127</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>473.5363429955701</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="C33" t="n">
-        <v>299.0833137144431</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="D33" t="n">
-        <v>299.0833137144431</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="E33" t="n">
-        <v>299.0833137144431</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="F33" t="n">
-        <v>299.0833137144431</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="G33" t="n">
-        <v>222.2757342750542</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="H33" t="n">
-        <v>110.6039933227266</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="I33" t="n">
         <v>26.35547586232214</v>
       </c>
       <c r="J33" t="n">
-        <v>41.89062962334817</v>
+        <v>29.40206841005616</v>
       </c>
       <c r="K33" t="n">
-        <v>41.89062962334817</v>
+        <v>182.5749637053451</v>
       </c>
       <c r="L33" t="n">
-        <v>68.81935964183492</v>
+        <v>449.9392204260188</v>
       </c>
       <c r="M33" t="n">
-        <v>394.9683734380714</v>
+        <v>776.0882342222553</v>
       </c>
       <c r="N33" t="n">
-        <v>721.1173872343079</v>
+        <v>1102.237248018492</v>
       </c>
       <c r="O33" t="n">
-        <v>1010.854544986305</v>
+        <v>1102.237248018492</v>
       </c>
       <c r="P33" t="n">
-        <v>1226.39109008392</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q33" t="n">
         <v>1317.773793116107</v>
       </c>
       <c r="R33" t="n">
-        <v>1227.516306595949</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S33" t="n">
-        <v>1057.363478986125</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T33" t="n">
-        <v>1057.363478986125</v>
+        <v>1298.123868806381</v>
       </c>
       <c r="U33" t="n">
-        <v>1057.363478986125</v>
+        <v>1069.911813176559</v>
       </c>
       <c r="V33" t="n">
-        <v>1057.363478986125</v>
+        <v>834.7597049448159</v>
       </c>
       <c r="W33" t="n">
-        <v>1057.363478986125</v>
+        <v>580.5223482166143</v>
       </c>
       <c r="X33" t="n">
-        <v>849.511978780592</v>
+        <v>372.6708480110814</v>
       </c>
       <c r="Y33" t="n">
-        <v>641.7516800156382</v>
+        <v>164.9105492461275</v>
       </c>
     </row>
     <row r="34">
@@ -6886,10 +6886,10 @@
         <v>262.2781522559729</v>
       </c>
       <c r="T34" t="n">
-        <v>262.2781522559729</v>
+        <v>32.65964542183076</v>
       </c>
       <c r="U34" t="n">
-        <v>262.2781522559729</v>
+        <v>32.65964542183076</v>
       </c>
       <c r="V34" t="n">
         <v>26.35547586232214</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>507.2329897851201</v>
+        <v>359.126635740127</v>
       </c>
       <c r="C35" t="n">
-        <v>174.4618299073153</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="D35" t="n">
         <v>26.35547586232214</v>
@@ -6962,25 +6962,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S35" t="n">
-        <v>1317.773793116107</v>
+        <v>1248.580379423226</v>
       </c>
       <c r="T35" t="n">
-        <v>1093.862369188617</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="U35" t="n">
-        <v>840.004149662925</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="V35" t="n">
-        <v>840.004149662925</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="W35" t="n">
-        <v>840.004149662925</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="X35" t="n">
-        <v>507.2329897851201</v>
+        <v>691.8977956179318</v>
       </c>
       <c r="Y35" t="n">
-        <v>507.2329897851201</v>
+        <v>691.8977956179318</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>224.1054353007392</v>
+        <v>989.9902595798084</v>
       </c>
       <c r="C36" t="n">
-        <v>175.2898855235734</v>
+        <v>815.5372302986814</v>
       </c>
       <c r="D36" t="n">
-        <v>26.35547586232214</v>
+        <v>666.6028206374301</v>
       </c>
       <c r="E36" t="n">
-        <v>26.35547586232214</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="F36" t="n">
-        <v>26.35547586232214</v>
+        <v>360.8308076588595</v>
       </c>
       <c r="G36" t="n">
-        <v>26.35547586232214</v>
+        <v>222.2757342750542</v>
       </c>
       <c r="H36" t="n">
-        <v>26.35547586232214</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="I36" t="n">
         <v>26.35547586232214</v>
@@ -7017,16 +7017,16 @@
         <v>26.35547586232214</v>
       </c>
       <c r="K36" t="n">
-        <v>179.528371157611</v>
+        <v>91.19226067315805</v>
       </c>
       <c r="L36" t="n">
-        <v>179.528371157611</v>
+        <v>358.5565173938318</v>
       </c>
       <c r="M36" t="n">
-        <v>394.9683734380714</v>
+        <v>684.7055311900683</v>
       </c>
       <c r="N36" t="n">
-        <v>721.1173872343079</v>
+        <v>1010.854544986305</v>
       </c>
       <c r="O36" t="n">
         <v>1010.854544986305</v>
@@ -7038,28 +7038,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R36" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="S36" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="T36" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="U36" t="n">
-        <v>1089.561737486284</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="V36" t="n">
-        <v>854.4096292545416</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="W36" t="n">
-        <v>600.1722725263401</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="X36" t="n">
-        <v>392.3207723208072</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="Y36" t="n">
-        <v>392.3207723208072</v>
+        <v>1019.756007830995</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="C37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="D37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="E37" t="n">
-        <v>26.35547586232214</v>
+        <v>195.8959891991</v>
       </c>
       <c r="F37" t="n">
-        <v>26.35547586232214</v>
+        <v>195.8959891991</v>
       </c>
       <c r="G37" t="n">
         <v>26.35547586232214</v>
@@ -7123,22 +7123,22 @@
         <v>262.2781522559729</v>
       </c>
       <c r="T37" t="n">
-        <v>32.65964542183076</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="U37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="V37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="W37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="X37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1024.668955495737</v>
+        <v>636.357993136763</v>
       </c>
       <c r="C38" t="n">
-        <v>691.8977956179318</v>
+        <v>303.5868332589581</v>
       </c>
       <c r="D38" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="E38" t="n">
         <v>26.35547586232214</v>
@@ -7181,10 +7181,10 @@
         <v>416.6983385035395</v>
       </c>
       <c r="M38" t="n">
-        <v>690.2042992386662</v>
+        <v>690.204299238666</v>
       </c>
       <c r="N38" t="n">
-        <v>953.5038748143525</v>
+        <v>953.5038748143522</v>
       </c>
       <c r="O38" t="n">
         <v>1156.942559902893</v>
@@ -7199,25 +7199,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S38" t="n">
-        <v>1317.773793116107</v>
+        <v>1114.127636589945</v>
       </c>
       <c r="T38" t="n">
-        <v>1317.773793116107</v>
+        <v>890.2162126624553</v>
       </c>
       <c r="U38" t="n">
-        <v>1063.915573590415</v>
+        <v>636.357993136763</v>
       </c>
       <c r="V38" t="n">
-        <v>1024.668955495737</v>
+        <v>636.357993136763</v>
       </c>
       <c r="W38" t="n">
-        <v>1024.668955495737</v>
+        <v>636.357993136763</v>
       </c>
       <c r="X38" t="n">
-        <v>1024.668955495737</v>
+        <v>636.357993136763</v>
       </c>
       <c r="Y38" t="n">
-        <v>1024.668955495737</v>
+        <v>636.357993136763</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.9902595798084</v>
+        <v>175.2898855235734</v>
       </c>
       <c r="C39" t="n">
-        <v>815.5372302986814</v>
+        <v>175.2898855235734</v>
       </c>
       <c r="D39" t="n">
-        <v>666.6028206374301</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="E39" t="n">
-        <v>507.3653656319746</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="F39" t="n">
-        <v>360.8308076588595</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="G39" t="n">
-        <v>222.2757342750542</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="H39" t="n">
-        <v>110.6039933227266</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="I39" t="n">
         <v>26.35547586232214</v>
@@ -7254,13 +7254,13 @@
         <v>41.89062962334817</v>
       </c>
       <c r="K39" t="n">
-        <v>195.0635249186371</v>
+        <v>41.89062962334817</v>
       </c>
       <c r="L39" t="n">
-        <v>195.0635249186371</v>
+        <v>68.81935964183492</v>
       </c>
       <c r="M39" t="n">
-        <v>521.2125387148735</v>
+        <v>394.9683734380714</v>
       </c>
       <c r="N39" t="n">
         <v>721.1173872343079</v>
@@ -7278,25 +7278,25 @@
         <v>1227.516306595949</v>
       </c>
       <c r="S39" t="n">
-        <v>1227.516306595949</v>
+        <v>1057.363478986125</v>
       </c>
       <c r="T39" t="n">
-        <v>1227.516306595949</v>
+        <v>855.8852883749752</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.516306595949</v>
+        <v>664.6793504835177</v>
       </c>
       <c r="V39" t="n">
-        <v>1227.516306595949</v>
+        <v>429.5272422517751</v>
       </c>
       <c r="W39" t="n">
-        <v>1227.516306595949</v>
+        <v>175.2898855235734</v>
       </c>
       <c r="X39" t="n">
-        <v>1227.516306595949</v>
+        <v>175.2898855235734</v>
       </c>
       <c r="Y39" t="n">
-        <v>1019.756007830995</v>
+        <v>175.2898855235734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="C40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="D40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="E40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="F40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="G40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="H40" t="n">
-        <v>1081.851116722456</v>
+        <v>99.72234889343173</v>
       </c>
       <c r="I40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="J40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="K40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232214</v>
       </c>
       <c r="L40" t="n">
-        <v>1130.635433557166</v>
+        <v>75.13979269703229</v>
       </c>
       <c r="M40" t="n">
-        <v>1192.46077868793</v>
+        <v>136.9651378277962</v>
       </c>
       <c r="N40" t="n">
-        <v>1258.250671719779</v>
+        <v>202.7550308596446</v>
       </c>
       <c r="O40" t="n">
-        <v>1303.001990822952</v>
+        <v>247.5063499628179</v>
       </c>
       <c r="P40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="Q40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="R40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="S40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="T40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="U40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="V40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="W40" t="n">
-        <v>1309.840667620474</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="Y40" t="n">
-        <v>1081.851116722456</v>
+        <v>262.2781522559729</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="C41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="D41" t="n">
         <v>851.0251651172021</v>
@@ -7412,49 +7412,49 @@
         <v>37.38388349266361</v>
       </c>
       <c r="K41" t="n">
-        <v>37.38388349266361</v>
+        <v>181.351217076048</v>
       </c>
       <c r="L41" t="n">
-        <v>268.264718807535</v>
+        <v>412.2320523909194</v>
       </c>
       <c r="M41" t="n">
-        <v>539.1434419600973</v>
+        <v>683.1107755434816</v>
       </c>
       <c r="N41" t="n">
-        <v>802.4430175357836</v>
+        <v>946.4103511191679</v>
       </c>
       <c r="O41" t="n">
-        <v>933.6282542718856</v>
+        <v>1094.4594874851</v>
       </c>
       <c r="P41" t="n">
-        <v>1069.584082367094</v>
+        <v>1094.4594874851</v>
       </c>
       <c r="Q41" t="n">
         <v>1094.4594874851</v>
       </c>
       <c r="R41" t="n">
-        <v>1094.4594874851</v>
+        <v>1074.936589044692</v>
       </c>
       <c r="S41" t="n">
-        <v>1094.4594874851</v>
+        <v>1074.936589044692</v>
       </c>
       <c r="T41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="U41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="V41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="W41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="X41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
       <c r="Y41" t="n">
-        <v>1094.4594874851</v>
+        <v>851.0251651172021</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.18293913652064</v>
+        <v>21.889189749702</v>
       </c>
       <c r="C42" t="n">
         <v>21.889189749702</v>
@@ -7491,13 +7491,13 @@
         <v>37.42434351072803</v>
       </c>
       <c r="K42" t="n">
-        <v>37.42434351072803</v>
+        <v>190.5972388060169</v>
       </c>
       <c r="L42" t="n">
-        <v>304.7886002314018</v>
+        <v>457.9614955266907</v>
       </c>
       <c r="M42" t="n">
-        <v>575.667323383964</v>
+        <v>608.0442192349224</v>
       </c>
       <c r="N42" t="n">
         <v>608.0442192349224</v>
@@ -7512,28 +7512,28 @@
         <v>1094.4594874851</v>
       </c>
       <c r="R42" t="n">
-        <v>1094.4594874851</v>
+        <v>1004.202000964942</v>
       </c>
       <c r="S42" t="n">
-        <v>1094.4594874851</v>
+        <v>1004.202000964942</v>
       </c>
       <c r="T42" t="n">
-        <v>1094.4594874851</v>
+        <v>1004.202000964942</v>
       </c>
       <c r="U42" t="n">
-        <v>866.2474318552771</v>
+        <v>775.9899453351193</v>
       </c>
       <c r="V42" t="n">
-        <v>866.2474318552771</v>
+        <v>540.8378371033766</v>
       </c>
       <c r="W42" t="n">
-        <v>612.0100751270754</v>
+        <v>286.600480375175</v>
       </c>
       <c r="X42" t="n">
-        <v>404.1585749215426</v>
+        <v>229.6494885146559</v>
       </c>
       <c r="Y42" t="n">
-        <v>196.3982761565887</v>
+        <v>21.889189749702</v>
       </c>
     </row>
     <row r="43">
@@ -8775,10 +8775,10 @@
         <v>100.7754395250008</v>
       </c>
       <c r="M12" t="n">
-        <v>98.04779256207422</v>
+        <v>98.04779256207421</v>
       </c>
       <c r="N12" t="n">
-        <v>86.08863909729686</v>
+        <v>86.08863909729685</v>
       </c>
       <c r="O12" t="n">
         <v>101.1985235676418</v>
@@ -8787,7 +8787,7 @@
         <v>100.7490867231541</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.7715270972763</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,10 +9012,10 @@
         <v>100.7754395250008</v>
       </c>
       <c r="M15" t="n">
-        <v>98.04779256207422</v>
+        <v>98.04779256207421</v>
       </c>
       <c r="N15" t="n">
-        <v>86.08863909729686</v>
+        <v>86.08863909729685</v>
       </c>
       <c r="O15" t="n">
         <v>101.1985235676418</v>
@@ -9024,7 +9024,7 @@
         <v>100.7490867231541</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.7715270972763</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>153.4454093711024</v>
       </c>
       <c r="K17" t="n">
-        <v>234.5524399047908</v>
+        <v>207.1700680115423</v>
       </c>
       <c r="L17" t="n">
-        <v>184.4482495859339</v>
+        <v>240.2768259936857</v>
       </c>
       <c r="M17" t="n">
         <v>173.244886285634</v>
       </c>
       <c r="N17" t="n">
-        <v>184.1827558773481</v>
+        <v>227.216333571568</v>
       </c>
       <c r="O17" t="n">
-        <v>231.1351363689412</v>
+        <v>175.3065599611895</v>
       </c>
       <c r="P17" t="n">
-        <v>240.2981652911452</v>
+        <v>240.2981652911451</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3989608343219</v>
       </c>
       <c r="K18" t="n">
-        <v>109.745140754711</v>
+        <v>165.5737171624628</v>
       </c>
       <c r="L18" t="n">
-        <v>100.7754395250008</v>
+        <v>156.6040159327526</v>
       </c>
       <c r="M18" t="n">
-        <v>98.04779256207422</v>
+        <v>153.876368969826</v>
       </c>
       <c r="N18" t="n">
-        <v>123.9694409420829</v>
+        <v>139.6615154481697</v>
       </c>
       <c r="O18" t="n">
-        <v>157.0270999753936</v>
+        <v>101.1985235676418</v>
       </c>
       <c r="P18" t="n">
-        <v>156.5776631309058</v>
+        <v>100.7490867231541</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.600103505028</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>355.6184932586287</v>
+        <v>427.491240841101</v>
       </c>
       <c r="N21" t="n">
-        <v>415.5320873763237</v>
+        <v>343.6593397938513</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3989608343219</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>109.745140754711</v>
       </c>
       <c r="L24" t="n">
-        <v>100.7754395250008</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>299.9718819756442</v>
+        <v>200.3191469611404</v>
       </c>
       <c r="N24" t="n">
         <v>415.5320873763237</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>127.9761769174117</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>427.491240841101</v>
       </c>
       <c r="N27" t="n">
-        <v>415.5320873763237</v>
+        <v>235.6615046491916</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>100.7490867231541</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3989608343219</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>109.745140754711</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>98.04779256207421</v>
+        <v>427.491240841101</v>
       </c>
       <c r="N30" t="n">
         <v>415.5320873763236</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>250.3219522750488</v>
+        <v>183.5964353985495</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>113.4763270441543</v>
       </c>
       <c r="K33" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>127.9761769174117</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>427.491240841101</v>
@@ -10440,13 +10440,13 @@
         <v>415.5320873763237</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>101.1985235676418</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>110.3989608343219</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>175.2368425838382</v>
       </c>
       <c r="L36" t="n">
-        <v>100.7754395250008</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>315.6639564817311</v>
+        <v>427.491240841101</v>
       </c>
       <c r="N36" t="n">
         <v>415.5320873763237</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>101.1985235676418</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>109.745140754711</v>
       </c>
       <c r="L39" t="n">
-        <v>100.7754395250008</v>
+        <v>127.9761769174117</v>
       </c>
       <c r="M39" t="n">
         <v>427.491240841101</v>
       </c>
       <c r="N39" t="n">
-        <v>288.0127285108669</v>
+        <v>415.5320873763237</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>178.7238634970391</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,13 +11072,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>307.8169000986662</v>
+        <v>324.8511421489997</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>184.4695888833934</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>187.188318823535</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>371.6626644333492</v>
+        <v>249.6465033784698</v>
       </c>
       <c r="N42" t="n">
-        <v>118.7925743002851</v>
+        <v>86.08863909729685</v>
       </c>
       <c r="O42" t="n">
         <v>374.8133954389168</v>
@@ -23440,7 +23440,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K13" t="n">
-        <v>5.321915812043613</v>
+        <v>5.32191581204361</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23677,7 +23677,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K16" t="n">
-        <v>5.321915812043613</v>
+        <v>5.32191581204361</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>326.9052652557288</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>359.1489663898695</v>
+        <v>414.9775427976213</v>
       </c>
       <c r="H17" t="n">
-        <v>280.3158253072775</v>
+        <v>336.1444017150293</v>
       </c>
       <c r="I17" t="n">
-        <v>142.1102438157048</v>
+        <v>197.9388202234565</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>129.4416052671257</v>
       </c>
       <c r="S17" t="n">
-        <v>201.6096949609004</v>
+        <v>152.4358848609527</v>
       </c>
       <c r="T17" t="n">
-        <v>172.4984995882671</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3196373304354</v>
+        <v>195.4910609226836</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>271.9236820623831</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>95.89540229343615</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1695226499673</v>
+        <v>81.34094624221552</v>
       </c>
       <c r="H18" t="n">
-        <v>110.5550235428043</v>
+        <v>54.72644713505253</v>
       </c>
       <c r="I18" t="n">
-        <v>83.40603228580038</v>
+        <v>27.57745587804862</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,16 +23859,16 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S18" t="n">
-        <v>119.2774892337782</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T18" t="n">
-        <v>143.6348322972864</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U18" t="n">
-        <v>170.1013586657728</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V18" t="n">
-        <v>176.9720107416735</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.0165317956583</v>
+        <v>167.8451082034101</v>
       </c>
       <c r="H19" t="n">
         <v>160.9302453289157</v>
@@ -23911,10 +23911,10 @@
         <v>151.0637314645212</v>
       </c>
       <c r="J19" t="n">
-        <v>27.2175130469783</v>
+        <v>83.04608945473007</v>
       </c>
       <c r="K19" t="n">
-        <v>5.321915812043613</v>
+        <v>5.32191581204361</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R19" t="n">
-        <v>170.7344938056164</v>
+        <v>121.5606837056686</v>
       </c>
       <c r="S19" t="n">
-        <v>172.3006515349486</v>
+        <v>221.4744616348964</v>
       </c>
       <c r="T19" t="n">
         <v>227.3223217658007</v>
@@ -23950,10 +23950,10 @@
         <v>196.3090669160762</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>230.6944219288392</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>169.8810789812854</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.29039338445381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>25.23959334165619</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>52.48692179323501</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>414.9775427976213</v>
       </c>
       <c r="H20" t="n">
-        <v>336.1444017150293</v>
+        <v>187.8279214015942</v>
       </c>
       <c r="I20" t="n">
         <v>197.9388202234565</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S20" t="n">
-        <v>40.87751098385925</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T20" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3196373304354</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.79449037702682</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I21" t="n">
         <v>83.40603228580038</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>168.451299333726</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U21" t="n">
         <v>225.9299350735246</v>
       </c>
       <c r="V21" t="n">
-        <v>162.4573144996245</v>
+        <v>168.1498156200716</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>227.3223217658007</v>
       </c>
       <c r="U22" t="n">
-        <v>52.74762311831947</v>
+        <v>286.3110727480337</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>18.5741936941138</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,10 +24212,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>52.48692179323501</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>77.43259746268467</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.9775427976213</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>19.79752043838624</v>
+        <v>202.5323403529772</v>
       </c>
       <c r="X23" t="n">
-        <v>330.8769487647378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>19.2502523660132</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>18.18142058119469</v>
       </c>
       <c r="H24" t="n">
         <v>110.5550235428043</v>
@@ -24339,7 +24339,7 @@
         <v>199.4634087050382</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>82.29884448712586</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,10 +24409,10 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R25" t="n">
-        <v>158.6455058107985</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>221.4744616348964</v>
       </c>
       <c r="T25" t="n">
         <v>227.3223217658007</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>216.9564114575725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>25.23959334165619</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>184.4260097234828</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>19.79752043838624</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>40.28765239944227</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,22 +24522,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>95.09720893947751</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>83.40603228580038</v>
@@ -24573,13 +24573,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>61.8994899846588</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>52.9595487068768</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.7308591114177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.29039338445381</v>
+        <v>341.8166669613046</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>77.43259746268467</v>
       </c>
       <c r="G29" t="n">
         <v>414.9775427976213</v>
       </c>
       <c r="H29" t="n">
-        <v>6.700953436002521</v>
+        <v>336.1444017150293</v>
       </c>
       <c r="I29" t="n">
-        <v>197.9388202234565</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U29" t="n">
-        <v>184.4260097234828</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>56.79449037702682</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9299350735246</v>
+        <v>34.87188803871098</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97835871867721</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,13 +24856,13 @@
         <v>160.9302453289157</v>
       </c>
       <c r="I31" t="n">
-        <v>79.81561027006121</v>
+        <v>84.74710293343468</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>83.04608945473007</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.32191581204361</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.94732316848051</v>
       </c>
       <c r="R31" t="n">
         <v>170.7344938056164</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.29039338445381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>35.82944349198078</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>25.23959334165619</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.87751098385928</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U32" t="n">
-        <v>184.4260097234828</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>61.13001900497227</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4634087050382</v>
+        <v>180.0099836384097</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>221.4744616348964</v>
       </c>
       <c r="T34" t="n">
-        <v>227.3223217658007</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3110727480337</v>
       </c>
       <c r="V34" t="n">
-        <v>18.5741936941138</v>
+        <v>245.8965154599145</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>53.29039338445381</v>
       </c>
       <c r="C35" t="n">
         <v>35.82944349198078</v>
       </c>
       <c r="D35" t="n">
-        <v>208.0577511161398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25202,13 +25202,13 @@
         <v>129.4416052671257</v>
       </c>
       <c r="S35" t="n">
-        <v>201.6096949609004</v>
+        <v>133.1082154049485</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>137.0650928811923</v>
       </c>
       <c r="C36" t="n">
-        <v>124.3811047089216</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>168.451299333726</v>
@@ -25287,19 +25287,19 @@
         <v>199.4634087050382</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>80.71562122026502</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8451082034101</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>160.9302453289157</v>
@@ -25363,10 +25363,10 @@
         <v>221.4744616348964</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.3223217658007</v>
       </c>
       <c r="U37" t="n">
-        <v>280.0699448841202</v>
+        <v>286.3110727480337</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,10 +25394,10 @@
         <v>35.82944349198078</v>
       </c>
       <c r="D38" t="n">
-        <v>25.23959334165619</v>
+        <v>80.22399779801333</v>
       </c>
       <c r="E38" t="n">
-        <v>52.48692179323501</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,16 +25439,16 @@
         <v>129.4416052671257</v>
       </c>
       <c r="S38" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>288.8981065564036</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.0650928811923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9299350735246</v>
+        <v>36.63605656098176</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,10 +25564,10 @@
         <v>167.8451082034101</v>
       </c>
       <c r="H40" t="n">
-        <v>160.9302453289157</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>151.0637314645212</v>
+        <v>78.43052716372267</v>
       </c>
       <c r="J40" t="n">
         <v>83.04608945473007</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>278.6692040959139</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.683062476464</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>108.3154982009868</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>129.4416052671257</v>
+        <v>110.1139358111216</v>
       </c>
       <c r="S41" t="n">
         <v>201.6096949609004</v>
       </c>
       <c r="T41" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3196373304354</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>166.4776870953653</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>168.451299333726</v>
@@ -25764,13 +25764,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>149.3915032615636</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>370608.4083079546</v>
+        <v>370608.4083079545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>566128.178334476</v>
+        <v>566128.1783344757</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>566128.1783344758</v>
+        <v>566128.178334476</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>526358.7282697419</v>
+        <v>526358.7282697418</v>
       </c>
     </row>
     <row r="16">
@@ -26329,7 +26329,7 @@
         <v>120835.0273333929</v>
       </c>
       <c r="H2" t="n">
-        <v>182561.6261771158</v>
+        <v>182561.6261771157</v>
       </c>
       <c r="I2" t="n">
         <v>182561.6261771157</v>
@@ -26341,7 +26341,7 @@
         <v>182561.6261771158</v>
       </c>
       <c r="L2" t="n">
-        <v>182561.6261771158</v>
+        <v>182561.6261771157</v>
       </c>
       <c r="M2" t="n">
         <v>182561.6261771157</v>
@@ -26350,7 +26350,7 @@
         <v>182561.6261771157</v>
       </c>
       <c r="O2" t="n">
-        <v>170006.2058733362</v>
+        <v>170006.2058733361</v>
       </c>
       <c r="P2" t="n">
         <v>105809.6882813288</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64989.02489413427</v>
+        <v>64989.02489413428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15301.77536471864</v>
+        <v>15301.77536471865</v>
       </c>
       <c r="H3" t="n">
-        <v>73823.75496471683</v>
+        <v>73823.75496471685</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>38791.50727586333</v>
+        <v>38999.98079889482</v>
       </c>
       <c r="F4" t="n">
-        <v>38791.50727586333</v>
+        <v>38999.98079889482</v>
       </c>
       <c r="G4" t="n">
-        <v>46062.87664709898</v>
+        <v>46310.16782662567</v>
       </c>
       <c r="H4" t="n">
-        <v>75934.87478754275</v>
+        <v>76341.63537419756</v>
       </c>
       <c r="I4" t="n">
-        <v>75934.87478754277</v>
+        <v>76341.63537419758</v>
       </c>
       <c r="J4" t="n">
-        <v>75934.87478754277</v>
+        <v>76341.63537419756</v>
       </c>
       <c r="K4" t="n">
-        <v>75934.87478754277</v>
+        <v>76341.63537419758</v>
       </c>
       <c r="L4" t="n">
-        <v>75934.87478754277</v>
+        <v>76341.63537419758</v>
       </c>
       <c r="M4" t="n">
-        <v>75934.87478754275</v>
+        <v>76341.63537419758</v>
       </c>
       <c r="N4" t="n">
-        <v>75934.87478754275</v>
+        <v>76341.63537419758</v>
       </c>
       <c r="O4" t="n">
-        <v>69858.79901157871</v>
+        <v>70233.12292636768</v>
       </c>
       <c r="P4" t="n">
-        <v>38791.50727586332</v>
+        <v>38999.98079889482</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1763.449654397764</v>
+        <v>1763.449654397765</v>
       </c>
       <c r="F5" t="n">
-        <v>1763.449654397764</v>
+        <v>1763.449654397765</v>
       </c>
       <c r="G5" t="n">
         <v>5157.827099989072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20384.70805746447</v>
+        <v>20126.1027657232</v>
       </c>
       <c r="C6" t="n">
-        <v>20384.70805746447</v>
+        <v>20126.10276572321</v>
       </c>
       <c r="D6" t="n">
-        <v>20384.70805746449</v>
+        <v>20126.10276572321</v>
       </c>
       <c r="E6" t="n">
-        <v>265.706456933412</v>
+        <v>57.23293390189906</v>
       </c>
       <c r="F6" t="n">
-        <v>65254.73135106768</v>
+        <v>65046.25782803618</v>
       </c>
       <c r="G6" t="n">
-        <v>54312.54822158621</v>
+        <v>54065.25704205953</v>
       </c>
       <c r="H6" t="n">
-        <v>11009.38511509365</v>
+        <v>10602.62452843873</v>
       </c>
       <c r="I6" t="n">
-        <v>84833.14007981039</v>
+        <v>84426.37949315557</v>
       </c>
       <c r="J6" t="n">
-        <v>84833.14007981033</v>
+        <v>84426.37949315559</v>
       </c>
       <c r="K6" t="n">
-        <v>84833.14007981042</v>
+        <v>84426.3794931556</v>
       </c>
       <c r="L6" t="n">
-        <v>84833.14007981042</v>
+        <v>84426.37949315557</v>
       </c>
       <c r="M6" t="n">
-        <v>84833.14007981034</v>
+        <v>84426.37949315555</v>
       </c>
       <c r="N6" t="n">
-        <v>84833.1400798104</v>
+        <v>84426.37949315552</v>
       </c>
       <c r="O6" t="n">
-        <v>81748.17299758618</v>
+        <v>81373.84908279715</v>
       </c>
       <c r="P6" t="n">
-        <v>65254.73135106768</v>
+        <v>65046.25782803618</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154883</v>
       </c>
       <c r="F3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154883</v>
       </c>
       <c r="G3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154883</v>
       </c>
       <c r="H3" t="n">
         <v>80.89218598154883</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154883</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.82857640775176</v>
+        <v>55.82857640775177</v>
       </c>
       <c r="H4" t="n">
-        <v>273.6148718712749</v>
+        <v>273.614871871275</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>55.82857640775176</v>
+        <v>55.82857640775177</v>
       </c>
       <c r="P4" t="n">
-        <v>273.6148718712749</v>
+        <v>273.614871871275</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H11" t="n">
         <v>3.330400400737835</v>
       </c>
       <c r="I11" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J11" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K11" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794148</v>
       </c>
       <c r="L11" t="n">
         <v>51.31816538405334</v>
       </c>
       <c r="M11" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163874</v>
       </c>
       <c r="N11" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O11" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049723</v>
       </c>
       <c r="P11" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187618</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.11737105091449</v>
+        <v>35.1173710509145</v>
       </c>
       <c r="R11" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S11" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344903</v>
       </c>
       <c r="T11" t="n">
         <v>1.423539875916502</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H12" t="n">
         <v>1.680420693692175</v>
       </c>
       <c r="I12" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614702</v>
       </c>
       <c r="J12" t="n">
         <v>16.43866583234475</v>
@@ -31847,16 +31847,16 @@
         <v>37.77894025487335</v>
       </c>
       <c r="M12" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994411</v>
       </c>
       <c r="N12" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O12" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P12" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q12" t="n">
         <v>22.21024698874526</v>
@@ -31868,7 +31868,7 @@
         <v>3.231871770111878</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.7013199897834279</v>
       </c>
       <c r="U12" t="n">
         <v>0.01144700745021918</v>
@@ -31914,7 +31914,7 @@
         <v>1.296927178523849</v>
       </c>
       <c r="I13" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737108</v>
       </c>
       <c r="J13" t="n">
         <v>10.31309066194271</v>
@@ -31941,13 +31941,13 @@
         <v>12.21472008321387</v>
       </c>
       <c r="R13" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553121</v>
       </c>
       <c r="S13" t="n">
         <v>2.542136402075886</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.6232676624807859</v>
       </c>
       <c r="U13" t="n">
         <v>0.007956608457201532</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H14" t="n">
         <v>3.330400400737835</v>
       </c>
       <c r="I14" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J14" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K14" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794148</v>
       </c>
       <c r="L14" t="n">
         <v>51.31816538405334</v>
       </c>
       <c r="M14" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163874</v>
       </c>
       <c r="N14" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O14" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049723</v>
       </c>
       <c r="P14" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187618</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.11737105091449</v>
+        <v>35.1173710509145</v>
       </c>
       <c r="R14" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S14" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344903</v>
       </c>
       <c r="T14" t="n">
         <v>1.423539875916502</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H15" t="n">
         <v>1.680420693692175</v>
       </c>
       <c r="I15" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614702</v>
       </c>
       <c r="J15" t="n">
         <v>16.43866583234475</v>
@@ -32084,16 +32084,16 @@
         <v>37.77894025487335</v>
       </c>
       <c r="M15" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994411</v>
       </c>
       <c r="N15" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O15" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P15" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q15" t="n">
         <v>22.21024698874526</v>
@@ -32105,7 +32105,7 @@
         <v>3.231871770111878</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.7013199897834279</v>
       </c>
       <c r="U15" t="n">
         <v>0.01144700745021918</v>
@@ -32151,7 +32151,7 @@
         <v>1.296927178523849</v>
       </c>
       <c r="I16" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737108</v>
       </c>
       <c r="J16" t="n">
         <v>10.31309066194271</v>
@@ -32178,13 +32178,13 @@
         <v>12.21472008321387</v>
       </c>
       <c r="R16" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553121</v>
       </c>
       <c r="S16" t="n">
         <v>2.542136402075886</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.6232676624807859</v>
       </c>
       <c r="U16" t="n">
         <v>0.007956608457201532</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H17" t="n">
         <v>3.330400400737835</v>
       </c>
       <c r="I17" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J17" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K17" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794148</v>
       </c>
       <c r="L17" t="n">
         <v>51.31816538405334</v>
       </c>
       <c r="M17" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163874</v>
       </c>
       <c r="N17" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O17" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049723</v>
       </c>
       <c r="P17" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187618</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.11737105091449</v>
+        <v>35.1173710509145</v>
       </c>
       <c r="R17" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S17" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344903</v>
       </c>
       <c r="T17" t="n">
         <v>1.423539875916502</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H18" t="n">
         <v>1.680420693692175</v>
       </c>
       <c r="I18" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614702</v>
       </c>
       <c r="J18" t="n">
         <v>16.43866583234475</v>
@@ -32321,16 +32321,16 @@
         <v>37.77894025487335</v>
       </c>
       <c r="M18" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994411</v>
       </c>
       <c r="N18" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O18" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P18" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q18" t="n">
         <v>22.21024698874526</v>
@@ -32342,7 +32342,7 @@
         <v>3.231871770111878</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.7013199897834279</v>
       </c>
       <c r="U18" t="n">
         <v>0.01144700745021918</v>
@@ -32388,7 +32388,7 @@
         <v>1.296927178523849</v>
       </c>
       <c r="I19" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737108</v>
       </c>
       <c r="J19" t="n">
         <v>10.31309066194271</v>
@@ -32415,13 +32415,13 @@
         <v>12.21472008321387</v>
       </c>
       <c r="R19" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553121</v>
       </c>
       <c r="S19" t="n">
         <v>2.542136402075886</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.6232676624807859</v>
       </c>
       <c r="U19" t="n">
         <v>0.007956608457201532</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>15.65120580097132</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>28.44620451450322</v>
+      </c>
+      <c r="L17" t="n">
         <v>55.82857640775176</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>12.79499871353189</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="O17" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>55.82857640775176</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.12667183636969</v>
+        <v>25.1266718363697</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.69207450608689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.82857640775176</v>
       </c>
       <c r="N18" t="n">
-        <v>37.880801844786</v>
+        <v>53.57287635087289</v>
       </c>
       <c r="O18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.82857640775176</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,10 +36054,10 @@
         <v>55.82857640775176</v>
       </c>
       <c r="O19" t="n">
-        <v>45.20335262946789</v>
+        <v>45.2033526294679</v>
       </c>
       <c r="P19" t="n">
-        <v>14.92101241732832</v>
+        <v>14.92101241732833</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>270.0649057784584</v>
       </c>
       <c r="M21" t="n">
+        <v>329.4434482790268</v>
+      </c>
+      <c r="N21" t="n">
         <v>257.5707006965545</v>
-      </c>
-      <c r="N21" t="n">
-        <v>329.4434482790268</v>
       </c>
       <c r="O21" t="n">
         <v>292.6637957090877</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.65120580097147</v>
+        <v>15.65120580097133</v>
       </c>
       <c r="K23" t="n">
         <v>145.4215490741257</v>
@@ -36364,7 +36364,7 @@
         <v>233.2129649645165</v>
       </c>
       <c r="M23" t="n">
-        <v>276.2686472071985</v>
+        <v>276.2686472071987</v>
       </c>
       <c r="N23" t="n">
         <v>265.959167248168</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.6920745060869</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>154.7200962578676</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M24" t="n">
-        <v>201.92408941357</v>
+        <v>102.2713543990662</v>
       </c>
       <c r="N24" t="n">
         <v>329.4434482790268</v>
@@ -36674,22 +36674,22 @@
         <v>15.6920745060869</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L27" t="n">
-        <v>27.20073739241086</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M27" t="n">
         <v>329.4434482790268</v>
       </c>
       <c r="N27" t="n">
-        <v>329.4434482790268</v>
+        <v>149.5728655518948</v>
       </c>
       <c r="O27" t="n">
         <v>292.6637957090877</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7136819167831</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>92.30576063857285</v>
@@ -36832,7 +36832,7 @@
         <v>15.65120580097133</v>
       </c>
       <c r="K29" t="n">
-        <v>145.4215490741257</v>
+        <v>145.4215490741258</v>
       </c>
       <c r="L29" t="n">
         <v>233.2129649645165</v>
@@ -36844,7 +36844,7 @@
         <v>265.959167248168</v>
       </c>
       <c r="O29" t="n">
-        <v>205.4936213015561</v>
+        <v>205.4936213015559</v>
       </c>
       <c r="P29" t="n">
         <v>137.3291192880893</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.6920745060869</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>154.7200962578676</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>270.0649057784584</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="N30" t="n">
         <v>329.4434482790268</v>
@@ -36926,10 +36926,10 @@
         <v>292.6637957090877</v>
       </c>
       <c r="P30" t="n">
-        <v>149.5728655518948</v>
+        <v>82.84734867539541</v>
       </c>
       <c r="Q30" t="n">
-        <v>92.30576063857285</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.6920745060869</v>
+        <v>3.077366209832342</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L33" t="n">
-        <v>27.20073739241086</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M33" t="n">
         <v>329.4434482790268</v>
@@ -37160,13 +37160,13 @@
         <v>329.4434482790268</v>
       </c>
       <c r="O33" t="n">
-        <v>292.6637957090877</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>217.7136819167831</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.30576063857285</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>154.7200962578676</v>
+        <v>65.49170182912718</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M36" t="n">
-        <v>217.6161639196569</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="N36" t="n">
         <v>329.4434482790268</v>
       </c>
       <c r="O36" t="n">
-        <v>292.6637957090877</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>217.7136819167831</v>
@@ -37549,7 +37549,7 @@
         <v>233.2129649645165</v>
       </c>
       <c r="M38" t="n">
-        <v>276.2686472071987</v>
+        <v>276.2686472071985</v>
       </c>
       <c r="N38" t="n">
         <v>265.959167248168</v>
@@ -37558,7 +37558,7 @@
         <v>205.4936213015559</v>
       </c>
       <c r="P38" t="n">
-        <v>137.3291192880893</v>
+        <v>137.3291192880894</v>
       </c>
       <c r="Q38" t="n">
         <v>25.1266718363697</v>
@@ -37622,16 +37622,16 @@
         <v>15.6920745060869</v>
       </c>
       <c r="K39" t="n">
-        <v>154.7200962578676</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.20073739241086</v>
       </c>
       <c r="M39" t="n">
         <v>329.4434482790268</v>
       </c>
       <c r="N39" t="n">
-        <v>201.9240894135701</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="O39" t="n">
         <v>292.6637957090877</v>
@@ -37780,7 +37780,7 @@
         <v>15.65120580097133</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.4215490741257</v>
       </c>
       <c r="L41" t="n">
         <v>233.2129649645165</v>
@@ -37792,13 +37792,13 @@
         <v>265.959167248168</v>
       </c>
       <c r="O41" t="n">
-        <v>132.5103401374767</v>
+        <v>149.5445821878102</v>
       </c>
       <c r="P41" t="n">
-        <v>137.3291192880893</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.1266718363697</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>15.6920745060869</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L42" t="n">
         <v>270.0649057784584</v>
       </c>
       <c r="M42" t="n">
-        <v>273.614871871275</v>
+        <v>151.5987108163957</v>
       </c>
       <c r="N42" t="n">
-        <v>32.70393520298825</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>273.614871871275</v>
